--- a/eLTSS data element and FHIR resources - MustSupport.xlsx
+++ b/eLTSS data element and FHIR resources - MustSupport.xlsx
@@ -5,19 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2495d70db3445b8d/Documents/eLTSSv3/HL7 May19 Ballot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Owncloud\eLTSS (1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA58ACA1-14AD-49EE-9649-9CAF226B276F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB410E-6C4D-4BDF-BDCD-49DEF7C22D16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="13248" windowHeight="4140" activeTab="1" xr2:uid="{CA8EE698-98B9-9B4A-8E3A-6DBA8EAB1F7E}"/>
+    <workbookView minimized="1" xWindow="930" yWindow="0" windowWidth="13245" windowHeight="4140" xr2:uid="{CA8EE698-98B9-9B4A-8E3A-6DBA8EAB1F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$57</definedName>
+  </definedNames>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="140">
   <si>
     <t>eLTSS Data Element Name</t>
   </si>
@@ -209,96 +212,24 @@
     <t>CarePlan</t>
   </si>
   <si>
-    <t>CarePlan-&gt;subject (Patient)-&gt;name</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;subject (Patient)-&gt;identifier</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;subject (Patient)-&gt;birthdate</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;subject (Patient)-&gt;telecom</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;subject (Patient)-&gt;address</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;subject (Patient)-&gt;contact</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;supportingInfo(Observation)</t>
-  </si>
-  <si>
     <t>FHIR Resource Mapping</t>
   </si>
   <si>
     <t>Observation</t>
   </si>
   <si>
-    <t>CarePlan-&gt;addresses(Condition)</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;supportingInfo(Questionnaire)</t>
-  </si>
-  <si>
     <t>Questionnaire + QuestionnaireResponse</t>
   </si>
   <si>
-    <t>CarePlan-&gt;encounter(Encounter)-&gt;episodeOfCare(EpisodeOfCare)-&gt;careManager</t>
-  </si>
-  <si>
     <t>CarePlan-&gt;period</t>
   </si>
   <si>
-    <t>CarePlan-&gt;supportingInfo(Contract)-&gt;signer</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;supportingInfo(RiskAssessment)</t>
-  </si>
-  <si>
     <t>RiskAssessment</t>
   </si>
   <si>
-    <t>CarePlan-&gt;activity-&gt;reference(ServiceRequest)-&gt;code</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;activity-&gt;reference(ServiceRequest)-&gt;extension</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;activity-&gt;reference(ServiceRequest)-&gt;occurrenceTiming</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;activity-&gt;reference(ServiceRequest)-&gt;locationReference(Location)</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;activity-&gt;reference(ServiceRequest)-&gt;note</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;activity-&gt;reference(ServiceRequest)-&gt;Insurance(Coverage)-&gt;payor</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;activity-&gt;reference(ServiceRequest)-&gt;quantityQuantity</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;activity-&gt;reference(ServiceRequest)-&gt;supportingInfo(Claim)-&gt;item-&gt;unitPrice</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;activity-&gt;reference(ServiceRequest)-&gt;supportingInfo(Claim)-&gt;item-&gt;net</t>
-  </si>
-  <si>
     <t>CarePlan-&gt;author</t>
   </si>
   <si>
-    <t>CarePlan-&gt;activity-&gt;reference(ServiceRequest)-&gt;performer</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;Activity-&gt;detail or CarePlan-&gt;activity-&gt;reference(ServiceRequest)-&gt;note</t>
-  </si>
-  <si>
-    <t>CarePlan-&gt;goal(Goal)-&gt;description</t>
-  </si>
-  <si>
     <t>Patient-&gt;name</t>
   </si>
   <si>
@@ -441,6 +372,84 @@
   </si>
   <si>
     <t>NOTE: OCP Is R3 - we can state that we looked at it, but can't be dependent on it.</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; Activity -&gt; detail or CarePlan -&gt; activity -&gt; reference(ServiceRequest) -&gt; note</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; activity -&gt; reference(ServiceRequest) -&gt; code</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; activity -&gt; reference(ServiceRequest) -&gt; extension</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; activity -&gt; reference(ServiceRequest) -&gt; Insurance(Coverage) -&gt; payor</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; activity -&gt; reference(ServiceRequest) -&gt; locationReference(Location)</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; activity -&gt; reference(ServiceRequest) -&gt; note</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; activity -&gt; reference(ServiceRequest) -&gt; occurrenceTiming</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; activity -&gt; reference(ServiceRequest) -&gt; performer</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; activity -&gt; reference(ServiceRequest) -&gt; quantityQuantity</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; activity -&gt; reference(ServiceRequest) -&gt; supportingInfo(Claim) -&gt; item -&gt; net</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; activity -&gt; reference(ServiceRequest) -&gt; supportingInfo(Claim) -&gt; item -&gt; unitPrice</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; addresses(Condition)</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; author</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; encounter(Encounter) -&gt; episodeOfCare(EpisodeOfCare) -&gt; careManager</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; goal(Goal) -&gt; description</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; period</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; subject (Patient) -&gt; address</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; subject (Patient) -&gt; birthdate</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; subject (Patient) -&gt; contact</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; subject (Patient) -&gt; identifier</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; subject (Patient) -&gt; name</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; subject (Patient) -&gt; telecom</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; supportingInfo(Contract) -&gt; signer</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; supportingInfo(Observation)</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; supportingInfo(Questionnaire)</t>
+  </si>
+  <si>
+    <t>CarePlan -&gt; supportingInfo(RiskAssessment)</t>
   </si>
 </sst>
 </file>
@@ -864,24 +873,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFA7B16-6F1E-954D-B840-1EB1F648E08A}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.19921875" customWidth="1"/>
-    <col min="2" max="2" width="74.19921875" customWidth="1"/>
-    <col min="3" max="3" width="64.69921875" customWidth="1"/>
-    <col min="4" max="4" width="42.796875" customWidth="1"/>
+    <col min="1" max="1" width="47.25" customWidth="1"/>
+    <col min="2" max="2" width="74.25" customWidth="1"/>
+    <col min="3" max="3" width="64.75" customWidth="1"/>
+    <col min="4" max="4" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>54</v>
@@ -890,623 +899,628 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
         <v>62</v>
       </c>
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
         <v>77</v>
       </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
         <v>82</v>
       </c>
-      <c r="C47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+      <c r="B56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="B57" s="3" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C57" xr:uid="{703A7FB1-4EB2-482A-B1E8-D5D4465FB1DD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C57">
+      <sortCondition ref="C1:C57"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1515,291 +1529,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0DBFC0-48C6-824D-B559-EDC7613C445D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" customWidth="1"/>
-    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="D23" s="7" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1827,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/eLTSS data element and FHIR resources - MustSupport.xlsx
+++ b/eLTSS data element and FHIR resources - MustSupport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Owncloud\eLTSS (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FHIR\eLTSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB410E-6C4D-4BDF-BDCD-49DEF7C22D16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A274BAA-423D-4B9D-A0C2-C9C39FFC0A6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="930" yWindow="0" windowWidth="13245" windowHeight="4140" xr2:uid="{CA8EE698-98B9-9B4A-8E3A-6DBA8EAB1F7E}"/>
+    <workbookView minimized="1" xWindow="930" yWindow="0" windowWidth="13245" windowHeight="4140" activeTab="1" xr2:uid="{CA8EE698-98B9-9B4A-8E3A-6DBA8EAB1F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFA7B16-6F1E-954D-B840-1EB1F648E08A}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0DBFC0-48C6-824D-B559-EDC7613C445D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
